--- a/Literature Matrix.xlsx
+++ b/Literature Matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel chacreton\Documents\Coding\Social-Media-Data-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7499030F-5149-4254-815F-DE970736D9E6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA962C82-DC77-42D4-AF32-75C2F01D1FB0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3252" yWindow="1332" windowWidth="15948" windowHeight="8964" xr2:uid="{D9643276-78A5-4E3B-A329-DC51F3BDC412}"/>
+    <workbookView xWindow="1416" yWindow="600" windowWidth="15948" windowHeight="8964" xr2:uid="{D9643276-78A5-4E3B-A329-DC51F3BDC412}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="22">
   <si>
     <t>Author</t>
   </si>
@@ -74,6 +74,30 @@
   <si>
     <t>PER AUTH: Other articles have shown that including Twitter data in models improves predictive power
 Most research project combine Twitter data with data from other sources to make predictions (CDC…)</t>
+  </si>
+  <si>
+    <t>{Ireland, 2016 #951}</t>
+  </si>
+  <si>
+    <t>Action Tweets Linked to Reduced County-Level HIV Prevalence in the United States: Online Messages and Structural Determinants</t>
+  </si>
+  <si>
+    <t>HIV</t>
+  </si>
+  <si>
+    <t>Flu</t>
+  </si>
+  <si>
+    <t>150 mil Tweets. Regress county level HIV prevalence on action word in HIV tweets, controlling for confounders.</t>
+  </si>
+  <si>
+    <t>Did they include public health spending (or some other similar variable) in the model?</t>
+  </si>
+  <si>
+    <t>High rate of action word usage in tweets about HIV are associated with lower county level rates of HIV. 150 mil tweets was 10% of tweets for the time period. Twitter randomly samples the all available tweets.</t>
+  </si>
+  <si>
+    <t>CRAP ARTICLE</t>
   </si>
 </sst>
 </file>
@@ -431,7 +455,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -485,6 +509,9 @@
       <c r="C2" t="s">
         <v>12</v>
       </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
       <c r="G2" t="s">
         <v>7</v>
       </c>
@@ -496,11 +523,35 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>2016</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
       <c r="G3" t="s">
         <v>7</v>
       </c>
       <c r="H3" t="s">
         <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">

--- a/Literature Matrix.xlsx
+++ b/Literature Matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel chacreton\Documents\Coding\Social-Media-Data-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA962C82-DC77-42D4-AF32-75C2F01D1FB0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973D64B0-E06D-4D17-968D-5FFBA5309833}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1416" yWindow="600" windowWidth="15948" windowHeight="8964" xr2:uid="{D9643276-78A5-4E3B-A329-DC51F3BDC412}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D9643276-78A5-4E3B-A329-DC51F3BDC412}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
   <si>
     <t>Author</t>
   </si>
@@ -98,6 +98,12 @@
   </si>
   <si>
     <t>CRAP ARTICLE</t>
+  </si>
+  <si>
+    <t>{Cornelius, 2019 #947}</t>
+  </si>
+  <si>
+    <t>An Examination of Twitter Data to Identify Risky Sexual Practices Among Youth and Young Adults in Botswana</t>
   </si>
 </sst>
 </file>
@@ -455,7 +461,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -555,6 +561,15 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>2019</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
       <c r="G4" t="s">
         <v>7</v>
       </c>

--- a/Literature Matrix.xlsx
+++ b/Literature Matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel chacreton\Documents\Coding\Social-Media-Data-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973D64B0-E06D-4D17-968D-5FFBA5309833}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F940A66A-9289-454A-9727-EAD73F05E68D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D9643276-78A5-4E3B-A329-DC51F3BDC412}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
   <si>
     <t>Author</t>
   </si>
@@ -104,6 +104,29 @@
   </si>
   <si>
     <t>An Examination of Twitter Data to Identify Risky Sexual Practices Among Youth and Young Adults in Botswana</t>
+  </si>
+  <si>
+    <t>{Lohmann, 2018 #946}</t>
+  </si>
+  <si>
+    <t>Who is Saying What on Twitter: An Analysis of Messages with References to HIV and HIV Risk Behavior</t>
+  </si>
+  <si>
+    <t>Used Twitter Streaming API. Collected 230+mil tweets randomly collected tweets. Used stratified Sampling to create a subset of tweets with at least 1 keyword related to an HIV risk factor. They used 9 categories of words sex, drugs/alcohol, HIV/AIDS, other STIs, preventive methods/safe sex, men who have sex with men, full-service sex work, runaway youth, and sexual violence and abuse. These were derived from AIDS.GOV HIV glossary &amp; urban dictionary. 590 Keywords in total. Exlcuded RTs, SPAM, ads</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poined out that High STI risk groups are well represented on Twitter. 9 mil tweets pulled from larger sample, 0.03% had HIV keywords. 1,000 Tweets coded, 112 from each of the 9 categories. 50% of tweets were about a person, 39% about an attitude or opinion, 29% about a disease related social problem, 24% about a product or service, 6% about whether or not someone had an STI. Sex work difficult to parse out from jokes and regular cussing. HIV/AIDS the topic of only 7% of all tweets. 5% of tweets were aimed at countering myths &amp; misinformation. 24% aimed at positive behvior change, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">How does this paper help develop PH interventions?
+What countries/regions are the tweets from?
+Did the authors get a representative sample of anything?
+COMMENT:
+The early lines give the paper a lot of credibility problems
+They are mixing results and inference </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does not </t>
   </si>
 </sst>
 </file>
@@ -458,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF24FB7-F925-478E-89AE-1814138617F4}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -578,11 +601,35 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>2018</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
       <c r="G5" t="s">
         <v>7</v>
       </c>
       <c r="H5" t="s">
         <v>7</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -655,6 +702,15 @@
       </c>
       <c r="H14" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="10:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J19">
+        <v>2.4003000000000001</v>
+      </c>
+      <c r="K19">
+        <f>EXP(J19)</f>
+        <v>11.02648382964834</v>
       </c>
     </row>
   </sheetData>

--- a/Literature Matrix.xlsx
+++ b/Literature Matrix.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel chacreton\Documents\Coding\Social-Media-Data-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F940A66A-9289-454A-9727-EAD73F05E68D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{733F92D7-B1A0-4361-B610-DA2785AFADC4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D9643276-78A5-4E3B-A329-DC51F3BDC412}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
   <si>
     <t>Author</t>
   </si>
@@ -128,13 +130,141 @@
   <si>
     <t xml:space="preserve">Does not </t>
   </si>
+  <si>
+    <t>Used Gnip to pull all tweets from 1/1/12-2/29/16.140,240 tweets total, 576 about HIV = .04% of total tweets. 251 users (labeled org if agency, health, government, company, or firm in name). Key terms = AIDS, kiss (WHY KISS???), smoking drugs, genitals: penis or vagina, alcohol, beer, cannabis, rape, world AIDS day. differences among individuals or organizations using t-tests and tested for differences among the number of tweets each month [THIS IS STUPID, WHY WOULD YOU DO THIS OF COURSE ORGS WOULD HAVE FEWER TWEETS!!1] 
+FULL KEY TERMS ON SHEET2</t>
+  </si>
+  <si>
+    <t>Terms</t>
+  </si>
+  <si>
+    <t>HIV, sexually transmitted infection, death, AIDS</t>
+  </si>
+  <si>
+    <t>Health, protection, awareness, status</t>
+  </si>
+  <si>
+    <t>Intercourse, sexual, sex, pleasure, feel good</t>
+  </si>
+  <si>
+    <t>Wrap, protection, rubber, penis, contraceptive,</t>
+  </si>
+  <si>
+    <t>Lips, touch, sign of love, passion Pregnancy, infection, HIV, AIDS Male, genital, sperm, erection Wine, beer, spirits,</t>
+  </si>
+  <si>
+    <t>High, pleasure, inject, snort</t>
+  </si>
+  <si>
+    <t>High, pleasure, hunger, smoke, blunts, cannabis</t>
+  </si>
+  <si>
+    <t>Female, genital Without, no genital contact</t>
+  </si>
+  <si>
+    <t>Birth control, pill, reproductive health, barriers, wraps</t>
+  </si>
+  <si>
+    <t>Talk, safe, agreement Disease, AIDS, HIV</t>
+  </si>
+  <si>
+    <t>Physical force, power, hurt Sexual, assault, penetration Butt, rectum</t>
+  </si>
+  <si>
+    <t>Physical, emotional, effect</t>
+  </si>
+  <si>
+    <t>Sex with relatives, younger person</t>
+  </si>
+  <si>
+    <t>Pregnancy, terminate Influence, power</t>
+  </si>
+  <si>
+    <t>Body parts, holes, earring, jewelry</t>
+  </si>
+  <si>
+    <t>Body art, markings Married or engaged Money, sex exchange</t>
+  </si>
+  <si>
+    <t>Influence, member peer, group</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cornelius, J., Kennedy, A., &amp; Wesslen, R. (2019). An Examination of Twitter Data to Identify Risky Sexual Practices Among Youth and Young Adults in Botswana. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Int J Environ Res Public Health</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(4). https://doi.org/10.3390/ijerph16040656</t>
+    </r>
+  </si>
+  <si>
+    <t>count and frequencies of tweets. Article is almost useless</t>
+  </si>
+  <si>
+    <t>Bad article. The introduction is alit review, very long and uninteresting. The article body it self is very under whelming</t>
+  </si>
+  <si>
+    <t>Kakalou, C., Lazarus, J. V, &amp; Koutkias, V. (2019). Mining Social Media for Perceptions and Trends on HIV Pre-Exposure Prophylaxis. Stud Health Technol Inform, 264, 959–963. https://doi.org/10.3233/shti190366</t>
+  </si>
+  <si>
+    <t>Mining Social Media for Perceptions and Trends on HIV Pre-Exposure Prophylaxis</t>
+  </si>
+  <si>
+    <t>"In the preprocessing stage, punctuation and stop- words were removed from the text and special points of interest, namely, hashtags (i.e. #PrEPworks), mentions (i.e. @UNAIDS) and URLs, were detected using regular expressions. Through the Term Frequency - Indirect Document Frequency (TF-IDF) normalisation algorithm, term frequencies of the corpus were calculated and word associations with a correlation threshold of 0.2 were presented. The main discussion topics and the 7 most prevalent terms per topic were detected using the Latent Dirichlet Allocation (LDA) Sentiment analysis was performed to discover the polarity of expressed opinions in the corpus overall, but also per tweet and per creator. For the polarity calculation, the AFINN lexicon was used that has been especially developed for sentiment mining of microblogging text, featuring also slang words [19]. The emotions expressed within the corpus were mapped to the 8 basic human emotions (namely, anger, fear, anticipation, trust, surprise, sadness, joy, and disgust) via the NRC Word-Emotion Association Lexicon [20]. Both lexicons had to be adjusted to exclude terms that skewed the polarity, such as “negative” and “positive”, which in this specific context refer to the HIV status of an individual, and to include colloquial terms and abbrevia- tions often mentioned in the collected tweets (i.e. “ftw”, which means “for the win”, and “dope” meaning “great”)."</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -162,10 +292,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -481,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF24FB7-F925-478E-89AE-1814138617F4}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C9" sqref="C9:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -593,11 +730,23 @@
       <c r="C4" t="s">
         <v>23</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>50</v>
+      </c>
       <c r="G4" t="s">
         <v>7</v>
       </c>
       <c r="H4" t="s">
         <v>7</v>
+      </c>
+      <c r="J4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -633,6 +782,21 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6">
+        <v>2018</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
       <c r="G6" t="s">
         <v>7</v>
       </c>
@@ -704,13 +868,115 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="10:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J19">
-        <v>2.4003000000000001</v>
-      </c>
-      <c r="K19">
-        <f>EXP(J19)</f>
-        <v>11.02648382964834</v>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DCA74E-3965-40F9-B7E2-BA42B23CD2E2}">
+  <dimension ref="A1:A19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
